--- a/Database-schema-differences.xlsx
+++ b/Database-schema-differences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adietz\Documents\workspace\ReportGeneration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zpedersen\PycharmProjects\ReportGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E7869F-6F59-48C1-AC3E-7AA69B1C6902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F5866-0602-4CEC-BFD3-EDA5BA11DB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2630" yWindow="930" windowWidth="24210" windowHeight="17130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4620" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schemas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="124">
   <si>
     <t>CMSWCasesID</t>
   </si>
@@ -404,13 +404,16 @@
   </si>
   <si>
     <t>2.2.44 iPad</t>
+  </si>
+  <si>
+    <t>2.1.24, 2.1.56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +609,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C573E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,6 +812,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1097,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1134,6 +1150,12 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1143,12 +1165,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1196,6 +1213,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9C573E"/>
+      <color rgb="FFFFEB9C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1506,37 +1529,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="2"/>
-    <col min="6" max="6" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:33" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1583,7 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
@@ -1586,7 +1609,7 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="5" t="s">
         <v>35</v>
@@ -1607,7 +1630,7 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -1626,7 +1649,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -1645,7 +1668,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
@@ -1681,7 +1704,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="52" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" ht="51" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
@@ -1779,7 +1802,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
         <v>35</v>
@@ -1875,7 +1898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1894,7 +1917,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1913,7 +1936,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>76</v>
       </c>
@@ -1936,7 +1959,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:33" ht="39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>33</v>
       </c>
@@ -1995,7 +2018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>35</v>
@@ -2052,7 +2075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -2071,7 +2094,7 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -2090,7 +2113,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>77</v>
       </c>
@@ -2111,7 +2134,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:39" ht="26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
@@ -2142,7 +2165,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="6" t="s">
         <v>35</v>
@@ -2171,17 +2194,17 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="22" spans="1:39" ht="26" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:39" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2205,7 +2228,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
@@ -2228,7 +2251,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="5" t="s">
         <v>35</v>
@@ -2249,7 +2272,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2268,7 +2291,7 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -2287,7 +2310,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
@@ -2329,7 +2352,7 @@
       <c r="AL29" s="9"/>
       <c r="AM29" s="10"/>
     </row>
-    <row r="30" spans="1:39" ht="52" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" ht="51" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>33</v>
       </c>
@@ -2445,7 +2468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="6" t="s">
         <v>35</v>
@@ -2559,7 +2582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -2578,7 +2601,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -2597,7 +2620,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>76</v>
       </c>
@@ -2626,7 +2649,7 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="10"/>
     </row>
-    <row r="35" spans="1:26" ht="39" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
@@ -2703,7 +2726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
       <c r="C36" s="6" t="s">
         <v>35</v>
@@ -2778,7 +2801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -2797,7 +2820,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -2816,7 +2839,7 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>77</v>
       </c>
@@ -2837,7 +2860,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:26" ht="26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>33</v>
       </c>
@@ -2870,7 +2893,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" s="6" t="s">
         <v>35</v>
@@ -2901,7 +2924,7 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -2920,7 +2943,7 @@
       <c r="Q42"/>
       <c r="R42"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -2939,7 +2962,7 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -2958,7 +2981,7 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -2977,12 +3000,12 @@
       <c r="Q47"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:26" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>32</v>
       </c>
@@ -3003,7 +3026,7 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -3029,7 +3052,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="12"/>
       <c r="C51" s="5" t="s">
@@ -3051,7 +3074,7 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -3070,7 +3093,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -3089,7 +3112,7 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>36</v>
       </c>
@@ -3131,7 +3154,7 @@
       <c r="AL54" s="9"/>
       <c r="AM54" s="10"/>
     </row>
-    <row r="55" spans="1:39" ht="52" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" ht="51" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>33</v>
       </c>
@@ -3247,7 +3270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="12"/>
       <c r="C56" s="6" t="s">
         <v>35</v>
@@ -3361,7 +3384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -3380,7 +3403,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -3399,7 +3422,7 @@
       <c r="Q58"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>76</v>
       </c>
@@ -3429,7 +3452,7 @@
       <c r="Z59" s="9"/>
       <c r="AA59" s="10"/>
     </row>
-    <row r="60" spans="1:39" ht="39" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>33</v>
       </c>
@@ -3509,7 +3532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12"/>
       <c r="C61" s="6" t="s">
         <v>35</v>
@@ -3587,7 +3610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -3606,7 +3629,7 @@
       <c r="Q62"/>
       <c r="R62"/>
     </row>
-    <row r="63" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -3625,7 +3648,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>77</v>
       </c>
@@ -3646,7 +3669,7 @@
       <c r="Q64"/>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" ht="26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
         <v>33</v>
       </c>
@@ -3677,7 +3700,7 @@
       <c r="Q65"/>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="12"/>
       <c r="C66" s="6" t="s">
         <v>35</v>
@@ -3706,7 +3729,7 @@
       <c r="Q66"/>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -3725,7 +3748,7 @@
       <c r="Q67"/>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -3744,7 +3767,7 @@
       <c r="Q68"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -3763,32 +3786,32 @@
       <c r="Q69"/>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="32"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="34"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -3816,8 +3839,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="34"/>
+    <row r="73" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="31"/>
       <c r="C73" s="6" t="s">
         <v>35</v>
       </c>
@@ -3843,7 +3866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -3854,7 +3877,7 @@
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -3865,11 +3888,11 @@
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="30" t="s">
+    <row r="76" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="32"/>
+      <c r="C76" s="34"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
@@ -3878,8 +3901,8 @@
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B77" s="33" t="s">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3893,8 +3916,8 @@
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="34"/>
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="31"/>
       <c r="C78" s="5" t="s">
         <v>35</v>
       </c>
@@ -3906,7 +3929,7 @@
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -3917,7 +3940,7 @@
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -3928,11 +3951,11 @@
       <c r="I80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="30" t="s">
+    <row r="81" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="32"/>
+      <c r="C81" s="34"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
@@ -3949,8 +3972,8 @@
       <c r="Q81"/>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B82" s="33" t="s">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B82" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -3972,8 +3995,8 @@
       <c r="Q82"/>
       <c r="R82"/>
     </row>
-    <row r="83" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="34"/>
+    <row r="83" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="31"/>
       <c r="C83" s="5" t="s">
         <v>35</v>
       </c>
@@ -3993,7 +4016,7 @@
       <c r="Q83"/>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -4012,7 +4035,7 @@
       <c r="Q84"/>
       <c r="R84"/>
     </row>
-    <row r="85" spans="1:39" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:39" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="16" t="s">
         <v>97</v>
       </c>
@@ -4034,53 +4057,53 @@
       <c r="Q85"/>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="30" t="s">
+    <row r="86" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31"/>
-      <c r="Q86" s="31"/>
-      <c r="R86" s="31"/>
-      <c r="S86" s="31"/>
-      <c r="T86" s="31"/>
-      <c r="U86" s="31"/>
-      <c r="V86" s="31"/>
-      <c r="W86" s="31"/>
-      <c r="X86" s="31"/>
-      <c r="Y86" s="31"/>
-      <c r="Z86" s="31"/>
-      <c r="AA86" s="31"/>
-      <c r="AB86" s="31"/>
-      <c r="AC86" s="31"/>
-      <c r="AD86" s="31"/>
-      <c r="AE86" s="31"/>
-      <c r="AF86" s="31"/>
-      <c r="AG86" s="31"/>
-      <c r="AH86" s="31"/>
-      <c r="AI86" s="31"/>
-      <c r="AJ86" s="31"/>
-      <c r="AK86" s="31"/>
-      <c r="AL86" s="31"/>
-      <c r="AM86" s="32"/>
-    </row>
-    <row r="87" spans="1:39" ht="52" x14ac:dyDescent="0.35">
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="33"/>
+      <c r="T86" s="33"/>
+      <c r="U86" s="33"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="33"/>
+      <c r="X86" s="33"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="33"/>
+      <c r="AB86" s="33"/>
+      <c r="AC86" s="33"/>
+      <c r="AD86" s="33"/>
+      <c r="AE86" s="33"/>
+      <c r="AF86" s="33"/>
+      <c r="AG86" s="33"/>
+      <c r="AH86" s="33"/>
+      <c r="AI86" s="33"/>
+      <c r="AJ86" s="33"/>
+      <c r="AK86" s="33"/>
+      <c r="AL86" s="33"/>
+      <c r="AM86" s="34"/>
+    </row>
+    <row r="87" spans="1:39" ht="51" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -4195,9 +4218,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
-      <c r="B88" s="34"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="6" t="s">
         <v>35</v>
       </c>
@@ -4310,7 +4333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -4329,7 +4352,7 @@
       <c r="Q89"/>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -4348,39 +4371,39 @@
       <c r="Q90"/>
       <c r="R90"/>
     </row>
-    <row r="91" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="30" t="s">
+    <row r="91" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="31"/>
-      <c r="R91" s="31"/>
-      <c r="S91" s="31"/>
-      <c r="T91" s="31"/>
-      <c r="U91" s="31"/>
-      <c r="V91" s="31"/>
-      <c r="W91" s="31"/>
-      <c r="X91" s="31"/>
-      <c r="Y91" s="31"/>
-      <c r="Z91" s="31"/>
-      <c r="AA91" s="31"/>
-      <c r="AB91" s="32"/>
-    </row>
-    <row r="92" spans="1:39" ht="39" x14ac:dyDescent="0.35">
-      <c r="B92" s="33" t="s">
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="33"/>
+      <c r="X91" s="33"/>
+      <c r="Y91" s="33"/>
+      <c r="Z91" s="33"/>
+      <c r="AA91" s="33"/>
+      <c r="AB91" s="34"/>
+    </row>
+    <row r="92" spans="1:39" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B92" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -4462,8 +4485,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="34"/>
+    <row r="93" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="31"/>
       <c r="C93" s="6" t="s">
         <v>35</v>
       </c>
@@ -4543,7 +4566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -4562,7 +4585,7 @@
       <c r="Q94"/>
       <c r="R94"/>
     </row>
-    <row r="95" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -4581,15 +4604,15 @@
       <c r="Q95"/>
       <c r="R95"/>
     </row>
-    <row r="96" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="30" t="s">
+    <row r="96" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="34"/>
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96"/>
@@ -4602,8 +4625,8 @@
       <c r="Q96"/>
       <c r="R96"/>
     </row>
-    <row r="97" spans="1:39" ht="26" x14ac:dyDescent="0.35">
-      <c r="B97" s="33" t="s">
+    <row r="97" spans="1:39" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B97" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -4633,8 +4656,8 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="34"/>
+    <row r="98" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="31"/>
       <c r="C98" s="6" t="s">
         <v>35</v>
       </c>
@@ -4662,7 +4685,7 @@
       <c r="Q98"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -4681,7 +4704,7 @@
       <c r="Q99"/>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -4700,7 +4723,7 @@
       <c r="Q100"/>
       <c r="R100"/>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101"/>
       <c r="D101"/>
@@ -4719,12 +4742,12 @@
       <c r="Q101"/>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:39" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:39" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>32</v>
       </c>
@@ -4745,7 +4768,7 @@
       <c r="Q103"/>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>95</v>
       </c>
@@ -4771,7 +4794,7 @@
       <c r="Q104"/>
       <c r="R104"/>
     </row>
-    <row r="105" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="12"/>
       <c r="C105" s="5" t="s">
         <v>35</v>
@@ -4792,7 +4815,7 @@
       <c r="Q105"/>
       <c r="R105"/>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
@@ -4811,7 +4834,7 @@
       <c r="Q106"/>
       <c r="R106"/>
     </row>
-    <row r="107" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -4830,7 +4853,7 @@
       <c r="Q107"/>
       <c r="R107"/>
     </row>
-    <row r="108" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>36</v>
       </c>
@@ -4872,7 +4895,7 @@
       <c r="AL108" s="9"/>
       <c r="AM108" s="10"/>
     </row>
-    <row r="109" spans="1:39" ht="52" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:39" ht="51" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
         <v>33</v>
       </c>
@@ -4988,7 +5011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="110" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="12"/>
       <c r="C110" s="6" t="s">
         <v>35</v>
@@ -5102,7 +5125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
@@ -5121,7 +5144,7 @@
       <c r="Q111"/>
       <c r="R111"/>
     </row>
-    <row r="112" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -5140,7 +5163,7 @@
       <c r="Q112"/>
       <c r="R112"/>
     </row>
-    <row r="113" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>76</v>
       </c>
@@ -5173,7 +5196,7 @@
       <c r="AC113" s="9"/>
       <c r="AD113" s="10"/>
     </row>
-    <row r="114" spans="2:30" ht="39" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:30" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
         <v>33</v>
       </c>
@@ -5262,7 +5285,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="12"/>
       <c r="C115" s="6" t="s">
         <v>35</v>
@@ -5349,7 +5372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
@@ -5368,7 +5391,7 @@
       <c r="Q116"/>
       <c r="R116"/>
     </row>
-    <row r="117" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
@@ -5387,7 +5410,7 @@
       <c r="Q117"/>
       <c r="R117"/>
     </row>
-    <row r="118" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>77</v>
       </c>
@@ -5408,7 +5431,7 @@
       <c r="Q118"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="2:30" ht="26" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:30" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B119" s="11" t="s">
         <v>33</v>
       </c>
@@ -5439,7 +5462,7 @@
       <c r="Q119"/>
       <c r="R119"/>
     </row>
-    <row r="120" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="12"/>
       <c r="C120" s="6" t="s">
         <v>35</v>
@@ -5468,7 +5491,7 @@
       <c r="Q120"/>
       <c r="R120"/>
     </row>
-    <row r="121" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
       <c r="C121"/>
       <c r="D121"/>
@@ -5487,7 +5510,7 @@
       <c r="Q121"/>
       <c r="R121"/>
     </row>
-    <row r="122" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -5506,7 +5529,7 @@
       <c r="Q122"/>
       <c r="R122"/>
     </row>
-    <row r="123" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -5527,6 +5550,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B71:J71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="B91:AB91"/>
     <mergeCell ref="B92:B93"/>
@@ -5534,11 +5562,6 @@
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="B86:AM86"/>
     <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B71:J71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B81:C81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5553,16 +5576,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>114</v>
       </c>
@@ -5572,7 +5595,7 @@
       <c r="E1" s="21"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>99</v>
       </c>
@@ -5582,7 +5605,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>100</v>
       </c>
@@ -5592,7 +5615,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="22" t="s">
         <v>112</v>
@@ -5602,7 +5625,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>108</v>
       </c>
@@ -5614,7 +5637,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5622,7 +5645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5630,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5638,7 +5661,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5646,7 +5669,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5654,7 +5677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -5662,7 +5685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -5670,7 +5693,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -5678,148 +5701,148 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>36</v>
       </c>
@@ -5833,24 +5856,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.81640625" customWidth="1"/>
-    <col min="9" max="9" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
@@ -5872,7 +5895,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>99</v>
       </c>
@@ -5894,7 +5917,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>100</v>
       </c>
@@ -5916,7 +5939,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="22" t="s">
         <v>18</v>
@@ -5951,7 +5974,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>108</v>
       </c>
@@ -5959,7 +5982,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>82</v>
@@ -5988,7 +6011,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -6027,7 +6050,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6066,7 +6089,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6105,7 +6128,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -6144,7 +6167,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -6183,7 +6206,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6222,7 +6245,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6261,7 +6284,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -6300,7 +6323,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -6339,7 +6362,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -6378,7 +6401,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -6417,7 +6440,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -6456,7 +6479,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -6495,7 +6518,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -6534,7 +6557,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -6573,7 +6596,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -6612,7 +6635,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -6651,7 +6674,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -6690,7 +6713,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -6726,14 +6749,14 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -6762,14 +6785,14 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -6798,14 +6821,14 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="35" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -6834,14 +6857,14 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="35" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -6870,7 +6893,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -6906,7 +6929,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -6930,7 +6953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -6951,7 +6974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -6968,7 +6991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -6985,53 +7008,54 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7039,21 +7063,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J42"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
@@ -7073,7 +7097,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>99</v>
       </c>
@@ -7093,7 +7117,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>100</v>
       </c>
@@ -7113,7 +7137,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -7147,13 +7171,13 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>82</v>
@@ -7179,7 +7203,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -7211,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7243,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7275,7 +7299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7307,7 +7331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7339,7 +7363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -7371,7 +7395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7403,7 +7427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -7435,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -7467,7 +7491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -7499,7 +7523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -7531,7 +7555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -7563,7 +7587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -7595,7 +7619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -7627,7 +7651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -7659,7 +7683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -7691,7 +7715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -7723,7 +7747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -7755,7 +7779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -7787,7 +7811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -7819,7 +7843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -7851,7 +7875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -7883,7 +7907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -7915,7 +7939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -7947,7 +7971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -7979,7 +8003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -8011,7 +8035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -8043,7 +8067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -8075,7 +8099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
@@ -8107,7 +8131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
@@ -8139,7 +8163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
@@ -8171,7 +8195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
@@ -8200,7 +8224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
@@ -8229,7 +8253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33</v>
       </c>
@@ -8258,7 +8282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>34</v>
       </c>
@@ -8287,7 +8311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>35</v>
       </c>
@@ -8316,7 +8340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>36</v>
       </c>
@@ -8345,7 +8369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G43" s="2">
         <v>37</v>
       </c>
@@ -8356,7 +8380,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G44" s="2">
         <v>38</v>
       </c>
@@ -8380,13 +8404,13 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>102</v>
       </c>
@@ -8395,7 +8419,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>99</v>
       </c>
@@ -8404,7 +8428,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>100</v>
       </c>
@@ -8413,7 +8437,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="22" t="s">
         <v>18</v>
@@ -8437,7 +8461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="20" t="s">
         <v>109</v>
@@ -8461,7 +8485,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8487,7 +8511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8513,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8539,7 +8563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -8565,7 +8589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -8591,7 +8615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -8603,157 +8627,157 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>36</v>
       </c>
